--- a/biology/Botanique/Hesperocallis_undulata/Hesperocallis_undulata.xlsx
+++ b/biology/Botanique/Hesperocallis_undulata/Hesperocallis_undulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesperocallis undulata est une plante de la famille des Liliaceae selon la classification classique et de la famille des Asparagaceae selon classification phylogénétique APG III (2009)[1] . Elle est originaire de l'extrême sud-ouest des États-Unis et du nord du Mexique. Il s'agit de la seule espèce du genre Hesperocallis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesperocallis undulata est une plante de la famille des Liliaceae selon la classification classique et de la famille des Asparagaceae selon classification phylogénétique APG III (2009) . Elle est originaire de l'extrême sud-ouest des États-Unis et du nord du Mexique. Il s'agit de la seule espèce du genre Hesperocallis.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme une touffe d'une trentaine de centimètres de hauteur de longues feuilles étroites, aux bordures ondulées, longues de 20 à 50 cm. Ses parties souterraines sont constituées d'un bulbe[2].
-Appareil reproducteur
-La floraison a lieu entre mars et mai. De la touffe de feuille pousse une robuste tige florale qui portera une grappe de grandes fleurs blanches en forme d'entonnoir. Cette tige florale mesure couramment jusqu'à 1,8 m de hauteur, et peut même atteindre 2 m les années pluvieuses. Chaque fleur mesure généralement un peu plus de 6 cm de long. Elle est formée de tépales soudés à la base et se terminant par 6 lobes pointus libres, disposés en étoile. Ces tépales, blancs, ont chacun une ligne vert-bleuté longitudinale sur la face externe[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme une touffe d'une trentaine de centimètres de hauteur de longues feuilles étroites, aux bordures ondulées, longues de 20 à 50 cm. Ses parties souterraines sont constituées d'un bulbe.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante sur les replats ou les pentes douces des zones sablonneuses des déserts nord-américains. Son aire de répartition est restreinte et s'étend, au nord, du sud-est de la Californie et de l'ouest de l'Arizona, aux États-Unis, jusque, au sud, au nord-ouest du Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et mai. De la touffe de feuille pousse une robuste tige florale qui portera une grappe de grandes fleurs blanches en forme d'entonnoir. Cette tige florale mesure couramment jusqu'à 1,8 m de hauteur, et peut même atteindre 2 m les années pluvieuses. Chaque fleur mesure généralement un peu plus de 6 cm de long. Elle est formée de tépales soudés à la base et se terminant par 6 lobes pointus libres, disposés en étoile. Ces tépales, blancs, ont chacun une ligne vert-bleuté longitudinale sur la face externe.
 </t>
         </is>
       </c>
@@ -573,12 +594,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante sur les replats ou les pentes douces des zones sablonneuses des déserts nord-américains. Son aire de répartition est restreinte et s'étend, au nord, du sud-est de la Californie et de l'ouest de l'Arizona, aux États-Unis, jusque, au sud, au nord-ouest du Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hesperocallis_undulata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesperocallis_undulata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hesperocallis undulata et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bulbe était autrefois une source de nourriture pour les Amérindiens[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bulbe était autrefois une source de nourriture pour les Amérindiens.
 </t>
         </is>
       </c>
